--- a/data/2/20230608-a1r-nc-session2-g_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-g_transcript.xlsx
@@ -1,435 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37836DDD-0A5B-1C4F-B1A6-E3C17918B36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="127">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:08"</t>
-  </si>
-  <si>
-    <t>My name is Mary and I'm from Mississippi.</t>
-  </si>
-  <si>
-    <t>"2:13"</t>
-  </si>
-  <si>
-    <t>I am mark from Maine.</t>
-  </si>
-  <si>
-    <t>"2:19"</t>
-  </si>
-  <si>
-    <t>Peter from Wisconsin.</t>
-  </si>
-  <si>
-    <t>"2:29"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Jim from New York.</t>
-  </si>
-  <si>
-    <t>"2:33"</t>
-  </si>
-  <si>
-    <t>Aaron from Michigan.</t>
-  </si>
-  <si>
-    <t>"2:38"</t>
-  </si>
-  <si>
-    <t>Margaret from Michigan.</t>
-  </si>
-  <si>
-    <t>"2:40"</t>
-  </si>
-  <si>
-    <t>And Kerry from Maryland.</t>
-  </si>
-  <si>
-    <t>"10:47"</t>
-  </si>
-  <si>
-    <t>I have a fear that it's stacking the convention and it's removing a more from the actual voters who voted in the primary and it's going to have undue political influence within parties.</t>
-  </si>
-  <si>
-    <t>"11:04"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm old enough to remember when conventions actually mattered like that. I just think that inventions actually are kind of way out of date and we should reconsider even having conventions. But certainly, if we're having them, I don't, they don't approve of having large numbers in super delegates and the conventions.</t>
-  </si>
-  <si>
-    <t>"11:38"</t>
-  </si>
-  <si>
-    <t>I think I think that having the super delegates or having more of them would make the parties less adaptable and less less, you know, able to change. So when, when people think that their party is going in the wrong direction, I don't I think it would be much more resistant to actually doing that. If you had people from the party actually, having a bigger,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Voice in who the nominee is.</t>
-  </si>
-  <si>
-    <t>"12:19"</t>
-  </si>
-  <si>
-    <t>I agree to the with both of your comments and I especially agree with the fact that the national conventions have now become more of a dog and pony show rather than anything worthwhile. And I really think they say something they should be eliminated or somehow revamped. So that they really represent the people.</t>
-  </si>
-  <si>
-    <t>"13:56"</t>
-  </si>
-  <si>
-    <t>Yeah, in this Century, we've had two presidents that were not elected by the popular vote, but just, by, by the Electoral College. And so, I'm very much against the Electoral College. I think I would like to see a national election, just not nothing, nothing to do with the state's, you know. It doesn't matter how many states are person wins, and I personally, I like rank Choice voting but you know, with or without that I think a national election.</t>
-  </si>
-  <si>
-    <t>"14:28"</t>
-  </si>
-  <si>
-    <t>Peter. Sorry, we got cut off there. I agree with you. I as well believe in the popular vote being the way that President should be elected. Not the Electoral College, like you said, two presidents, were elected through the electoral college but not the popular vote.</t>
-  </si>
-  <si>
-    <t>"14:50"</t>
-  </si>
-  <si>
-    <t>Yep, I'm on for popular vote. As opposed to Electoral College, probably not a surprise to any of you given. What I was talking about what we were going through with Michigan, where basically, we had one party, leading the House and Senate in our state, despite not having the popular vote.</t>
-  </si>
-  <si>
-    <t>"15:16"</t>
-  </si>
-  <si>
-    <t>Yeah, I I also feel that it's using the popular.</t>
-  </si>
-  <si>
-    <t>"15:29"</t>
-  </si>
-  <si>
-    <t>I think the popular votes the way to go here in Mississippi but we don't have much on their Electoral College, you could try to get people to go out and vote and they think their vote doesn't even matter because we only have like what 11? I mean that's that's what you get when you try to get people to vote.</t>
-  </si>
-  <si>
-    <t>"15:48"</t>
-  </si>
-  <si>
-    <t>To play Devil's, Advocate one of the concerns in having the Electoral College is for Less populated areas, not being truly represented in a popular vote. And that the more congested areas of the country would be controlling the votes in the future. So what do you think about that?</t>
-  </si>
-  <si>
-    <t>"16:14"</t>
-  </si>
-  <si>
-    <t>I agree that that's serious danger with it is that we would be putting a lot of the power into the two coasts, New York, Boston. Philadelphia, Lala San Francisco. Are going to have a huge advantage over the middle part of the country that I don't think is going to get represented very well at all.</t>
-  </si>
-  <si>
-    <t>"16:41"</t>
-  </si>
-  <si>
-    <t>No, but on the other hand, like, Texas, Florida. These are huge States. I I don't I don't see that as a big problem. Myself. Just my opinion.</t>
-  </si>
-  <si>
-    <t>"17:00"</t>
-  </si>
-  <si>
-    <t>So you live in a state like Wyoming who has a very low population. Do you think they will feel that they're represented in the popular boat?</t>
-  </si>
-  <si>
-    <t>"17:12"</t>
-  </si>
-  <si>
-    <t>Well, I mean, am I represented in the popular boot being one person? I mean, I just I don't think that's a valid argument in my opinion.</t>
-  </si>
-  <si>
-    <t>"17:33"</t>
-  </si>
-  <si>
-    <t>If we were to do away with electrical cop Electoral College, how would we replace it? Does it go with a straight popular vote?</t>
-  </si>
-  <si>
-    <t>"17:46"</t>
-  </si>
-  <si>
-    <t>I think that's what most people are saying. The thing is, you know, a small state only has three electoral votes anyway. So I mean, it really isn't going to make that much difference. I mean, they're not going to people in Wyoming, are not going to feel that much more represented having three electoral votes than they do. Just having their own votes, count toward the national election.</t>
-  </si>
-  <si>
-    <t>"18:11"</t>
-  </si>
-  <si>
-    <t>Yeah, I mean just to reiterate what I would ask the girl, same thing. Peter was I mean like Wyoming. So they already the only have three electoral votes but they do have States like Wyoming and Alaska that have very low. Populations do have an outsized influence compared to other states because they each have two senators even though there's less than a million people living there. And they have the same number of</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Senators representing them. That California. New York, Texas. Florida have</t>
-  </si>
-  <si>
-    <t>"18:55"</t>
-  </si>
-  <si>
-    <t>Oh yeah. And then there's Washington DC, which I'm pretty sure Washington. D.c. probably has a larger population than Wyoming does and they don't even have Senators. They get three electoral votes, but none there's Puerto Rico to, which gets no, no Senators, no electoral. I think they get to participate in the primary, that's it.</t>
-  </si>
-  <si>
-    <t>"20:12"</t>
-  </si>
-  <si>
-    <t>I think it's an interesting idea, but I think it's really first of all, I don't think we're ever going to get all enough states to participate. And secondly, I just think it's not the way to go. I think we need to to, I think we need to reform the system, but I think we need to do it directly and not by playing little games on the side like this.</t>
-  </si>
-  <si>
-    <t>"20:37"</t>
-  </si>
-  <si>
-    <t>Yeah, this seems to be like a, the kind of thing that lawyers came up with ways to sneak this around the the way that the constitution was framed and that kind of stuff. Just really does not sit well with me. So I do not like this one.</t>
-  </si>
-  <si>
-    <t>"20:57"</t>
-  </si>
-  <si>
-    <t>I agree. It feels like someone is trying to pull a fast one over over us like they're playing games in some way to win the win the system.</t>
-  </si>
-  <si>
-    <t>"21:10"</t>
-  </si>
-  <si>
-    <t>I agree. I agree very much.</t>
-  </si>
-  <si>
-    <t>"21:14"</t>
-  </si>
-  <si>
-    <t>Yeah, I mean, II would just like Nationwide, whoever wins the popular vote. That's it. And obviously, we already have enough polarization and claims of voter fraud and stuff. And so, if you go to a state, where the majority of people voted for one candidate who didn't win the popular vote, then that's just gonna lead to more anger and polarization. I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Think.</t>
-  </si>
-  <si>
-    <t>"23:13"</t>
-  </si>
-  <si>
-    <t>I think I strongly believe that the 18-year terms are better than a lifetime term. I think sometimes you may get a good judge and maybe it's</t>
-  </si>
-  <si>
-    <t>no, maybe it might be beneficial have them there for a long time, but the majority of times, I think you need to just cycle through Nat. Fresh fresh, judges brought in on a routine routine basis. So I'm in favor of the 18 year terms.</t>
-  </si>
-  <si>
-    <t>"23:44"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that. I think that when the Constitution was written, people did not live as long as they do now. And you know we have people that are on the court for 30 even 40 years you know which I think is a little bit too much and I think that actually when I was much younger I actually thought of this myself having 18-year terms and having each president have a chance to appoint to just</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hisses and then I saw it come up much later on you know as a serious proposal which I thought was interesting. But anyway I'm very much in favor of it but I think that having a little turnover as a good</t>
-  </si>
-  <si>
-    <t>"24:29"</t>
-  </si>
-  <si>
-    <t>I agree I think having a turnover is a good thing. I would want wonder how the implementation would go and when how could this start with this be as they resign. Now we start anyone, we elect them becomes an 18 year term and whoever's on still stays on for the life term. I guess I wonder at at how this could be done.</t>
-  </si>
-  <si>
-    <t>"24:58"</t>
-  </si>
-  <si>
-    <t>Yeah I think I agree with this like Margaret just mentioned. I think the details of the implementation are really important and I don't think that the way that they were outlined with this really would work, I don't think it was detailed enough to really be able to tell one of the other things to go back to. I think Peters wanted said it that, you know, people weren't living is long and forgive me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If it was somebody else but I think it also is encouraging nominee Nations to be for younger people. Which I don't think is a good thing. I think experience really matters.</t>
-  </si>
-  <si>
-    <t>"25:43"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that. And as far as implementation goes, yeah, I think it will be tation it. I mean, we're talking to Theory here, you know, I mean, they actually said we're not supposed to spend too much time on implementation that that is problematic with this though, because what it said in the in the materials was that we would have just more. We would have to a new judge new Justice.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Every two years, but the old justices that were put on under the old system would stay on during that time. So the court would get bigger which is kids, can it be impractical? I think, but I still like the idea.</t>
-  </si>
-  <si>
-    <t>"26:28"</t>
-  </si>
-  <si>
-    <t>Yeah, I like the idea of both first of all, making sure there has to be nine judges at all times. And then the term limits because right now, it's just gotten to where, whoever the Senate leader is at the time, can just gain the system, because if you recall, a few years ago, Mitch McConnell kept the Supreme Court at eight Supreme Court Justices and blocked Obama's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Has nomination for a Supreme Court Justice and now with just lifetime appointments, I mean when it turns out that some of these judges are doing things that are unethical and Shady you just can't get rid of them.</t>
-  </si>
-  <si>
-    <t>"27:16"</t>
-  </si>
-  <si>
-    <t>And I sort of changing into the area of Ethics. I definitely think there should be standardized. Ethical requirements of all judges from your local circuit judges. All the way through the Supreme Court in should be standardized across</t>
-  </si>
-  <si>
-    <t>"28:33"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm in favor of these very strongly. I think, today's youth, lack of lack, a level of knowledge, about government and politics and how it works. And I think that puts our governor, our future, as a country, and a great disadvantage as as someone who has three. Kids one, just graduated college one in college and one graduated high school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> They know nothing about politics and it's kind of scary, it's scary that, you know, you asked who the president is, they don't even know. And I think they definitely need more education for this.</t>
-  </si>
-  <si>
-    <t>"29:15"</t>
-  </si>
-  <si>
-    <t>I agree. It's sad when people are applying for citizenship and they know more and can answer more questions about our government and the country than our own Youth. And I think it needs to start right from the kindergarten first grade and just build up through the years. And I think the two topics really should be combined into one. If you're having Civics, you should be able to have discussions about what's going on in your community. I don't think there are two separate items</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eames.</t>
-  </si>
-  <si>
-    <t>"29:46"</t>
-  </si>
-  <si>
-    <t>Yeah, I think there's a definite lack of knowledge amongst a lot of people and especially just where they're getting their information from. You know, I mean, most people they're getting their information about the government and how democracy works the from social media and actually, like, I think what we're doing right now is great. I mean, I don't know about you all, but I learned a lot on Tuesday from listening to The Experts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hurt speak afterwards and I think there needs to be more or less.</t>
-  </si>
-  <si>
-    <t>"30:23"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. We need a much better education. When I'm going to school many, many years ago, we had that we talked about politics in school and I think it's not so much done anymore. I think people are afraid now to talk politics because, you know, the country is so polarized, but we do need to talk more. We do need more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liberation and we need more education. Bill. As people of said, I think people just aren't aware of how the government works and we need more of that education.</t>
-  </si>
-  <si>
-    <t>"31:06"</t>
-  </si>
-  <si>
-    <t>Down here. I don't know about anywhere anybody else lives, but if it rains they let him out of school. Can you believe that? If it rains I can't imagine. And a lot of cursive writing the done away with cursive writing. That's enough.</t>
-  </si>
-  <si>
-    <t>"36:03"</t>
-  </si>
-  <si>
-    <t>Any suggestions on this?</t>
-  </si>
-  <si>
-    <t>"36:08"</t>
-  </si>
-  <si>
-    <t>No, I like the question we had asked us in our discussion and I think that's the part of the real world that we are concerned about.</t>
-  </si>
-  <si>
-    <t>"36:52"</t>
-  </si>
-  <si>
-    <t>Any thoughts from anyone and he edits any changes?</t>
-  </si>
-  <si>
-    <t>"36:58"</t>
-  </si>
-  <si>
-    <t>I like the question but I wonder if it's more of a philosophical discussion and it'd be interesting to see how the experts answer this one.</t>
-  </si>
-  <si>
-    <t>"37:09"</t>
-  </si>
-  <si>
-    <t>"37:40"</t>
-  </si>
-  <si>
-    <t>Any suggestions edits?</t>
-  </si>
-  <si>
-    <t>"37:45"</t>
-  </si>
-  <si>
-    <t>Actually, I like all three questions, they wish we could keep them all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I don't think any changes need to be made.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -505,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -611,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1693,886 +1293,1077 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>9671</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:08"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>My name is Mary and I'm from Mississippi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48659</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:13"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I am mark from Maine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"2:19"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Peter from Wisconsin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"2:29"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Hi, I'm Jim from New York.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"2:33"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Aaron from Michigan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"2:38"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Margaret from Michigan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"2:40"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>And Kerry from Maryland.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"10:47"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>I have a fear that it's stacking the convention and it's removing a more from the actual voters who voted in the primary and it's going to have undue political influence within parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"11:04"</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"11:04"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I'm old enough to remember when conventions actually mattered like that. I just think that inventions actually are kind of way out of date and we should reconsider even having conventions. But certainly, if we're having them, I don't, they don't approve of having large numbers in super delegates and the conventions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"11:38"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I think I think that having the super delegates or having more of them would make the parties less adaptable and less less, you know, able to change. So when, when people think that their party is going in the wrong direction, I don't I think it would be much more resistant to actually doing that. If you had people from the party actually, having a bigger,</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"11:38"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Voice in who the nominee is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"12:19"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>I agree to the with both of your comments and I especially agree with the fact that the national conventions have now become more of a dog and pony show rather than anything worthwhile. And I really think they say something they should be eliminated or somehow revamped. So that they really represent the people.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"13:56"</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"13:56"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, in this Century, we've had two presidents that were not elected by the popular vote, but just, by, by the Electoral College. And so, I'm very much against the Electoral College. I think I would like to see a national election, just not nothing, nothing to do with the state's, you know. It doesn't matter how many states are person wins, and I personally, I like rank Choice voting but you know, with or without that I think a national election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"14:28"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Peter. Sorry, we got cut off there. I agree with you. I as well believe in the popular vote being the way that President should be elected. Not the Electoral College, like you said, two presidents, were elected through the electoral college but not the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"14:50"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>Yep, I'm on for popular vote. As opposed to Electoral College, probably not a surprise to any of you given. What I was talking about what we were going through with Michigan, where basically, we had one party, leading the House and Senate in our state, despite not having the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"14:50"</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48659</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"15:16"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I I also feel that it's using the popular.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>9671</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"15:29"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>I think the popular votes the way to go here in Mississippi but we don't have much on their Electoral College, you could try to get people to go out and vote and they think their vote doesn't even matter because we only have like what 11? I mean that's that's what you get when you try to get people to vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"15:48"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>To play Devil's, Advocate one of the concerns in having the Electoral College is for Less populated areas, not being truly represented in a popular vote. And that the more congested areas of the country would be controlling the votes in the future. So what do you think about that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"15:48"</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"16:14"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>I agree that that's serious danger with it is that we would be putting a lot of the power into the two coasts, New York, Boston. Philadelphia, Lala San Francisco. Are going to have a huge advantage over the middle part of the country that I don't think is going to get represented very well at all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"16:41"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>No, but on the other hand, like, Texas, Florida. These are huge States. I I don't I don't see that as a big problem. Myself. Just my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"17:00"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>So you live in a state like Wyoming who has a very low population. Do you think they will feel that they're represented in the popular boat?</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"17:12"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Well, I mean, am I represented in the popular boot being one person? I mean, I just I don't think that's a valid argument in my opinion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"17:33"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>If we were to do away with electrical cop Electoral College, how would we replace it? Does it go with a straight popular vote?</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"17:46"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>I think that's what most people are saying. The thing is, you know, a small state only has three electoral votes anyway. So I mean, it really isn't going to make that much difference. I mean, they're not going to people in Wyoming, are not going to feel that much more represented having three electoral votes than they do. Just having their own votes, count toward the national election.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"18:11"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I mean just to reiterate what I would ask the girl, same thing. Peter was I mean like Wyoming. So they already the only have three electoral votes but they do have States like Wyoming and Alaska that have very low. Populations do have an outsized influence compared to other states because they each have two senators even though there's less than a million people living there. And they have the same number of</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"18:11"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Senators representing them. That California. New York, Texas. Florida have</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"18:55"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Oh yeah. And then there's Washington DC, which I'm pretty sure Washington. D.c. probably has a larger population than Wyoming does and they don't even have Senators. They get three electoral votes, but none there's Puerto Rico to, which gets no, no Senators, no electoral. I think they get to participate in the primary, that's it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"20:12"</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"20:12"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>I think it's an interesting idea, but I think it's really first of all, I don't think we're ever going to get all enough states to participate. And secondly, I just think it's not the way to go. I think we need to to, I think we need to reform the system, but I think we need to do it directly and not by playing little games on the side like this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"20:37"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, this seems to be like a, the kind of thing that lawyers came up with ways to sneak this around the the way that the constitution was framed and that kind of stuff. Just really does not sit well with me. So I do not like this one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"20:57"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I agree. It feels like someone is trying to pull a fast one over over us like they're playing games in some way to win the win the system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>9671</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"21:10"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I agree very much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"21:14"</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"21:14"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I mean, II would just like Nationwide, whoever wins the popular vote. That's it. And obviously, we already have enough polarization and claims of voter fraud and stuff. And so, if you go to a state, where the majority of people voted for one candidate who didn't win the popular vote, then that's just gonna lead to more anger and polarization. I</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"21:14"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="n"/>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>I think I strongly believe that the 18-year terms are better than a lifetime term. I think sometimes you may get a good judge and maybe it's</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>no, maybe it might be beneficial have them there for a long time, but the majority of times, I think you need to just cycle through Nat. Fresh fresh, judges brought in on a routine routine basis. So I'm in favor of the 18 year terms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"23:44"</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"23:44"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that. I think that when the Constitution was written, people did not live as long as they do now. And you know we have people that are on the court for 30 even 40 years you know which I think is a little bit too much and I think that actually when I was much younger I actually thought of this myself having 18-year terms and having each president have a chance to appoint to just</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"23:44"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hisses and then I saw it come up much later on you know as a serious proposal which I thought was interesting. But anyway I'm very much in favor of it but I think that having a little turnover as a good</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"24:29"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>I agree I think having a turnover is a good thing. I would want wonder how the implementation would go and when how could this start with this be as they resign. Now we start anyone, we elect them becomes an 18 year term and whoever's on still stays on for the life term. I guess I wonder at at how this could be done.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"24:58"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>Yeah I think I agree with this like Margaret just mentioned. I think the details of the implementation are really important and I don't think that the way that they were outlined with this really would work, I don't think it was detailed enough to really be able to tell one of the other things to go back to. I think Peters wanted said it that, you know, people weren't living is long and forgive me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48673</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"24:58"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> If it was somebody else but I think it also is encouraging nominee Nations to be for younger people. Which I don't think is a good thing. I think experience really matters.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"25:43"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that. And as far as implementation goes, yeah, I think it will be tation it. I mean, we're talking to Theory here, you know, I mean, they actually said we're not supposed to spend too much time on implementation that that is problematic with this though, because what it said in the in the materials was that we would have just more. We would have to a new judge new Justice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"25:43"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Every two years, but the old justices that were put on under the old system would stay on during that time. So the court would get bigger which is kids, can it be impractical? I think, but I still like the idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"26:28"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I like the idea of both first of all, making sure there has to be nine judges at all times. And then the term limits because right now, it's just gotten to where, whoever the Senate leader is at the time, can just gain the system, because if you recall, a few years ago, Mitch McConnell kept the Supreme Court at eight Supreme Court Justices and blocked Obama's.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"26:28"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Has nomination for a Supreme Court Justice and now with just lifetime appointments, I mean when it turns out that some of these judges are doing things that are unethical and Shady you just can't get rid of them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"27:16"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>And I sort of changing into the area of Ethics. I definitely think there should be standardized. Ethical requirements of all judges from your local circuit judges. All the way through the Supreme Court in should be standardized across</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"28:33"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I'm in favor of these very strongly. I think, today's youth, lack of lack, a level of knowledge, about government and politics and how it works. And I think that puts our governor, our future, as a country, and a great disadvantage as as someone who has three. Kids one, just graduated college one in college and one graduated high school.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"28:33"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> They know nothing about politics and it's kind of scary, it's scary that, you know, you asked who the president is, they don't even know. And I think they definitely need more education for this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"29:15"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>I agree. It's sad when people are applying for citizenship and they know more and can answer more questions about our government and the country than our own Youth. And I think it needs to start right from the kindergarten first grade and just build up through the years. And I think the two topics really should be combined into one. If you're having Civics, you should be able to have discussions about what's going on in your community. I don't think there are two separate items</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"29:15"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eames.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"29:46"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think there's a definite lack of knowledge amongst a lot of people and especially just where they're getting their information from. You know, I mean, most people they're getting their information about the government and how democracy works the from social media and actually, like, I think what we're doing right now is great. I mean, I don't know about you all, but I learned a lot on Tuesday from listening to The Experts</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>48621</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"29:46"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hurt speak afterwards and I think there needs to be more or less.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"30:23"</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"30:23"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. We need a much better education. When I'm going to school many, many years ago, we had that we talked about politics in school and I think it's not so much done anymore. I think people are afraid now to talk politics because, you know, the country is so polarized, but we do need to talk more. We do need more.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"30:23"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liberation and we need more education. Bill. As people of said, I think people just aren't aware of how the government works and we need more of that education.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>9671</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"31:06"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Down here. I don't know about anywhere anybody else lives, but if it rains they let him out of school. Can you believe that? If it rains I can't imagine. And a lot of cursive writing the done away with cursive writing. That's enough.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"36:03"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>Any suggestions on this?</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"36:08"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>No, I like the question we had asked us in our discussion and I think that's the part of the real world that we are concerned about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48651</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"36:52"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>Any thoughts from anyone and he edits any changes?</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"36:58"</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>I like the question but I wonder if it's more of a philosophical discussion and it'd be interesting to see how the experts answer this one.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>9671</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"37:09"</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="n"/>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>48614</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"37:40"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Any suggestions edits?</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"37:45"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Actually, I like all three questions, they wish we could keep them all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>48674</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>110</v>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"37:45"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I don't think any changes need to be made.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1370391-9A1F-3C46-A717-A3560DD8A7E6}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-nc-session2-g_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-g_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
